--- a/COM.JZB.PROJECT/COM.JZB.ORGANIZE.MODULE/src/main/resources/static/excel/importCommonuser.xlsx
+++ b/COM.JZB.PROJECT/COM.JZB.ORGANIZE.MODULE/src/main/resources/static/excel/importCommonuser.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443C6FF0-AD96-45BE-BD05-3C2F9073C6AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9199FA84-EB68-4D05-AF95-B44326A97C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="825" windowWidth="20475" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="24030" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>身份证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,14 @@
   </si>
   <si>
     <t>工作经历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,83 +535,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16" style="2" customWidth="1"/>
-    <col min="8" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="26.625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16" style="2" customWidth="1"/>
+    <col min="9" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="26.625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -612,13 +626,14 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -629,13 +644,14 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -646,13 +662,14 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -663,13 +680,14 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -680,13 +698,14 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -697,13 +716,14 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -714,13 +734,14 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -731,13 +752,14 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -748,13 +770,14 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -765,13 +788,14 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -782,13 +806,14 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -799,13 +824,14 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -816,13 +842,14 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -833,13 +860,14 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -850,13 +878,14 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -867,13 +896,14 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -884,13 +914,14 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -901,13 +932,14 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -918,13 +950,14 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -935,13 +968,14 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -952,13 +986,14 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -969,13 +1004,14 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P23" s="5"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -986,13 +1022,14 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -1003,13 +1040,14 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -1020,13 +1058,14 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -1037,13 +1076,14 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -1054,13 +1094,14 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -1071,13 +1112,14 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -1088,13 +1130,14 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -1105,6 +1148,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/COM.JZB.PROJECT/COM.JZB.ORGANIZE.MODULE/src/main/resources/static/excel/importCommonuser.xlsx
+++ b/COM.JZB.PROJECT/COM.JZB.ORGANIZE.MODULE/src/main/resources/static/excel/importCommonuser.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9199FA84-EB68-4D05-AF95-B44326A97C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F115D9-8C33-4EF6-8FDE-0445B4FB14D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="24030" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>身份证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(必填)性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(必填)电话号码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,6 +83,14 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,11 +539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -556,18 +560,18 @@
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -576,39 +580,42 @@
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -616,7 +623,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
       <c r="G2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -627,8 +634,9 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -645,8 +653,9 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -663,8 +672,9 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -681,8 +691,9 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -699,8 +710,9 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -717,8 +729,9 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -735,8 +748,9 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -753,8 +767,9 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -771,8 +786,9 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -789,8 +805,9 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -807,8 +824,9 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -825,8 +843,9 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -843,8 +862,9 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -861,8 +881,9 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -879,8 +900,9 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -897,8 +919,9 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -915,8 +938,9 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -933,8 +957,9 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -951,8 +976,9 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-    </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -969,8 +995,9 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -987,8 +1014,9 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1005,8 +1033,9 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-    </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1023,8 +1052,9 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1041,8 +1071,9 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1059,8 +1090,9 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1077,8 +1109,9 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
-    </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1095,8 +1128,9 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
-    </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1113,8 +1147,9 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
-    </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1131,8 +1166,9 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-    </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.15">
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1149,6 +1185,7 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
